--- a/granularidade_fina/results_table/rq2.xlsx
+++ b/granularidade_fina/results_table/rq2.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EF15"/>
+  <dimension ref="A1:EU15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       <c r="BI1" s="1" t="n"/>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>identify attack/name calling</t>
+          <t>identify attack</t>
         </is>
       </c>
       <c r="BK1" s="1" t="n"/>
@@ -634,6 +634,25 @@
       <c r="ED1" s="1" t="n"/>
       <c r="EE1" s="1" t="n"/>
       <c r="EF1" s="1" t="n"/>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="n"/>
+      <c r="EI1" s="1" t="n"/>
+      <c r="EJ1" s="1" t="n"/>
+      <c r="EK1" s="1" t="n"/>
+      <c r="EL1" s="1" t="n"/>
+      <c r="EM1" s="1" t="n"/>
+      <c r="EN1" s="1" t="n"/>
+      <c r="EO1" s="1" t="n"/>
+      <c r="EP1" s="1" t="n"/>
+      <c r="EQ1" s="1" t="n"/>
+      <c r="ER1" s="1" t="n"/>
+      <c r="ES1" s="1" t="n"/>
+      <c r="ET1" s="1" t="n"/>
+      <c r="EU1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -952,6 +971,41 @@
       </c>
       <c r="EE2" s="1" t="n"/>
       <c r="EF2" s="1" t="n"/>
+      <c r="EG2" s="1" t="inlineStr">
+        <is>
+          <t>Zero-shot</t>
+        </is>
+      </c>
+      <c r="EH2" s="1" t="n"/>
+      <c r="EI2" s="1" t="n"/>
+      <c r="EJ2" s="1" t="inlineStr">
+        <is>
+          <t>One-shot</t>
+        </is>
+      </c>
+      <c r="EK2" s="1" t="n"/>
+      <c r="EL2" s="1" t="n"/>
+      <c r="EM2" s="1" t="inlineStr">
+        <is>
+          <t>Few-shot</t>
+        </is>
+      </c>
+      <c r="EN2" s="1" t="n"/>
+      <c r="EO2" s="1" t="n"/>
+      <c r="EP2" s="1" t="inlineStr">
+        <is>
+          <t>Auto-CoT</t>
+        </is>
+      </c>
+      <c r="EQ2" s="1" t="n"/>
+      <c r="ER2" s="1" t="n"/>
+      <c r="ES2" s="1" t="inlineStr">
+        <is>
+          <t>Role-based</t>
+        </is>
+      </c>
+      <c r="ET2" s="1" t="n"/>
+      <c r="EU2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
@@ -1630,11 +1684,86 @@
           <t>F1</t>
         </is>
       </c>
+      <c r="EG3" s="1" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="EH3" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="EI3" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="EJ3" s="1" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="EK3" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="EL3" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="EM3" s="1" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="EN3" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="EO3" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="EP3" s="1" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="EQ3" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="ER3" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="ES3" s="1" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="ET3" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="EU3" s="1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>deepseek-14b</t>
+          <t>deepseek-r1:14b</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2041,12 +2170,57 @@
       </c>
       <c r="EF5" t="n">
         <v>0.2453703703703703</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0.9001447178002895</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0.6900377191036166</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0.781210751067571</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.8721174004192872</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0.8307077878855115</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0.8509090909090909</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0.8480170980764664</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0.7923230530286222</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0.8192245927965129</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.6685156423341468</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0.7615316567673449</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0.898876404494382</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0.8520079875748835</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0.8748148991912519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>deepseek-8b</t>
+          <t>deepseek-r1:8b</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2453,12 +2627,57 @@
       </c>
       <c r="EF6" t="n">
         <v>0.1934477379095164</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0.8584310189359784</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.4224539605058797</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0.5662453531598513</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.8577807546327305</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.8524517417350788</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0.8551079456933007</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0.855732555530626</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0.8462391834923453</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0.8509593931280678</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0.897172236503856</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0.2323053028622143</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0.3690518152978498</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0.8886509635974305</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.8287108941646328</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0.8576349024110218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>gemma2_9b</t>
+          <t>gemma2:9b</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2865,12 +3084,57 @@
       </c>
       <c r="EF7" t="n">
         <v>0.3035714285714285</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0.949673202614379</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.3223873973818504</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.48136491634918</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.9218054672600128</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.6434435322831151</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.7578727296485038</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.9025413274117936</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.8116263589971155</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.8546728971962617</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.9429319371727748</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.3996006212558243</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.561321489792738</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.943907156673114</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.5413800754382072</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0.6880992667794699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>gemma_7b</t>
+          <t>gemma:7b</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3277,6 +3541,51 @@
       </c>
       <c r="EF8" t="n">
         <v>0.1953488372093023</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.0026625249611715</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.005306212690692</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0.2187708009762591</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0.3497694217807733</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0.865990990990991</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0.1706234745950743</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0.2850787766450417</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0.0031076581576026</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.0061960610754591</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0.9442379182156134</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0.1127135566895939</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0.2013875123885034</v>
       </c>
     </row>
     <row r="9">
@@ -3690,11 +3999,56 @@
       <c r="EF9" t="n">
         <v>0.2692307692307692</v>
       </c>
+      <c r="EG9" t="n">
+        <v>0.9463615903975994</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.5597958730863102</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.7034713508992053</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.928720083246618</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.7921011759485245</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0.8549874266554903</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0.9211700545364404</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0.8244952296427779</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.870155719470788</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.9447552447552447</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.599911190053286</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.7338403041825095</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.9373501199040768</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.6938096294652762</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.7973989544817034</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>llama3.1_8b</t>
+          <t>llama3.1:8b</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4101,12 +4455,57 @@
       </c>
       <c r="EF10" t="n">
         <v>0.1886387995712754</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.94921875</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.2695806523186155</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.4199066874027994</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.9195938529088912</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.7435100954071444</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0.8222304011777696</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0.9200482121333869</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0.5080985134235634</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.6546598056032018</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.9403927068723704</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.2975371644109164</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.4520478678577448</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.9549402823018458</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.3902817838917239</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0.5541030083477713</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>llama3.2_3b</t>
+          <t>llama3.2:3b</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4513,12 +4912,57 @@
       </c>
       <c r="EF11" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>0.9625360230547551</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0.074106944752607</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.1376184590028842</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.9169054441260746</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0.0710006656312402</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>0.1317957166392092</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0.9152704643370032</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0.4242289771466607</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0.5797453001819285</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0.9423868312757202</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0.1016197026847126</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0.1834568395754055</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>0.9513201320132012</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0.2558242733525627</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0.4032173456898059</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mistral-nemo_12b</t>
+          <t>mistral-nemo:12b</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4925,12 +5369,57 @@
       </c>
       <c r="EF12" t="n">
         <v>0.25</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0.9441233140655106</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0.3261593077435101</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0.4848284960422163</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0.9061390157280568</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0.7925449301087197</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>0.8455438513433542</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0.8922071861875875</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0.8484579542933215</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0.8697827817582168</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0.95419187554019</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0.244952296427779</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0.3898305084745763</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0.9341040462427744</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0.7171067228755269</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0.8113468055729885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mistral_7b</t>
+          <t>mistral:7b</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5337,12 +5826,57 @@
       </c>
       <c r="EF13" t="n">
         <v>0.1881533101045296</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>0.9190751445086706</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0.0352784557355225</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0.0679487179487179</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0.8621323529411765</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0.7284224539605059</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0.7896572459410703</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0.8785024154589371</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0.8069669403150654</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0.8412166069156933</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0.912568306010929</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0.0370534723763035</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0.0712153518123667</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>0.9144865286997268</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>0.5196361215886399</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0.6627051499717035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>phi4_14b</t>
+          <t>phi4:14b</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5749,6 +6283,51 @@
       </c>
       <c r="EF14" t="n">
         <v>0.2630744849445325</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>0.9321982365460626</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0.6802751275793211</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0.7865572088250384</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>0.922279792746114</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>0.7503882848901708</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>0.8275018350868608</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0.9000484027105518</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0.8251608608830707</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0.8609792800092604</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>0.9187231759656652</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0.7599289993343687</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0.8318154219793564</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>0.9405306495882892</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0.6842689150210783</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0.7921911122527614</v>
       </c>
     </row>
     <row r="15">
@@ -6162,9 +6741,54 @@
       <c r="EF15" t="n">
         <v>0.2230169071245058</v>
       </c>
+      <c r="EG15" t="n">
+        <v>0.9111761997923246</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0.3382737963168404</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0.4434458153388156</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.8979269035803833</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0.642334146882627</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>0.7085375664875423</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0.8899528707373783</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0.6858220545817617</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0.7486475153704972</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0.9337737698712134</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0.3344532049897154</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>0.4360307316815352</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0.9308404201730454</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0.5595739960062126</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0.6642898957086981</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="60">
     <mergeCell ref="AX2:AZ2"/>
     <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="N2:P2"/>
@@ -6178,11 +6802,13 @@
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="CW2:CY2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="EM2:EO2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="Q1:AE1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="EG1:EU1"/>
     <mergeCell ref="BV2:BX2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="BG2:BI2"/>
@@ -6191,6 +6817,7 @@
     <mergeCell ref="CH2:CJ2"/>
     <mergeCell ref="DI2:DK2"/>
     <mergeCell ref="ED2:EF2"/>
+    <mergeCell ref="EJ2:EL2"/>
     <mergeCell ref="DU2:DW2"/>
     <mergeCell ref="DR1:EF1"/>
     <mergeCell ref="AR2:AT2"/>
@@ -6205,7 +6832,9 @@
     <mergeCell ref="CE2:CG2"/>
     <mergeCell ref="DF2:DH2"/>
     <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="EG2:EI2"/>
     <mergeCell ref="DC1:DQ1"/>
+    <mergeCell ref="ES2:EU2"/>
     <mergeCell ref="CN1:DB1"/>
     <mergeCell ref="BY1:CM1"/>
     <mergeCell ref="AO2:AQ2"/>
@@ -6217,6 +6846,7 @@
     <mergeCell ref="BJ1:BX1"/>
     <mergeCell ref="DO2:DQ2"/>
     <mergeCell ref="AU1:BI1"/>
+    <mergeCell ref="EP2:ER2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="BM2:BO2"/>
   </mergeCells>
